--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3650915.406143671</v>
+        <v>3646611.066333804</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>111.2254363169659</v>
+        <v>79.51149230610433</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -752,7 +752,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>100.1882427642922</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>116.5353697882407</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.50635910345734</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>197.1188673714094</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -913,7 +913,7 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>212.5689651179052</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>212.5689651179051</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>127.5254107260355</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>155.2537761190401</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>2.214688090590209</v>
       </c>
       <c r="Y7" t="n">
-        <v>160.2733359583715</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,16 +1138,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>278.7812405870237</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>11.54915978824949</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>228.4675737171903</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614511</v>
+        <v>92.83909691614505</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115252</v>
+        <v>20.24979976115236</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901739</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092543744329</v>
+        <v>224.0328052099045</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>249.9185339963806</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>90.06308666747383</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430996</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640955</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>84.16422985126565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>54.63637568893648</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710093</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.26758323426905</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>164.0001714587653</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1849,19 +1849,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>102.3802743186429</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>174.9740119554625</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>80.25286948725324</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187854</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>97.9841306222406</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.272891771006</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2845,10 +2845,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6324680438225141</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3426,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>92.20984583428753</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>146.9393756113383</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>180.6670586121386</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>43.98166197004215</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>40.96105405076428</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>419.7330060626393</v>
+        <v>900.5447187946887</v>
       </c>
       <c r="C2" t="n">
-        <v>153.3553494954613</v>
+        <v>900.5447187946887</v>
       </c>
       <c r="D2" t="n">
-        <v>41.00642392276843</v>
+        <v>820.230080101654</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276843</v>
+        <v>553.8524235344762</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356496</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917582</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515912</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030612</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991325</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.514968335842</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>1011.026904601762</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946894</v>
+        <v>900.5447187946887</v>
       </c>
       <c r="T2" t="n">
-        <v>686.1106626298174</v>
+        <v>900.5447187946887</v>
       </c>
       <c r="U2" t="n">
-        <v>686.1106626298174</v>
+        <v>900.5447187946887</v>
       </c>
       <c r="V2" t="n">
-        <v>686.1106626298174</v>
+        <v>900.5447187946887</v>
       </c>
       <c r="W2" t="n">
-        <v>686.1106626298174</v>
+        <v>900.5447187946887</v>
       </c>
       <c r="X2" t="n">
-        <v>686.1106626298174</v>
+        <v>900.5447187946887</v>
       </c>
       <c r="Y2" t="n">
-        <v>419.7330060626393</v>
+        <v>900.5447187946887</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>464.2658098296238</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="C3" t="n">
-        <v>464.2658098296238</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D3" t="n">
-        <v>464.2658098296238</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E3" t="n">
-        <v>305.0283548241683</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
-        <v>158.4937968510533</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957466</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
         <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>478.4519222278685</v>
       </c>
       <c r="N3" t="n">
-        <v>694.2029851278862</v>
+        <v>739.5286634293595</v>
       </c>
       <c r="O3" t="n">
-        <v>864.141532454616</v>
+        <v>909.4672107560893</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="S3" t="n">
-        <v>953.6552747895682</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="T3" t="n">
-        <v>953.6552747895682</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="U3" t="n">
-        <v>953.6552747895682</v>
+        <v>918.8071414772178</v>
       </c>
       <c r="V3" t="n">
-        <v>718.5031665578255</v>
+        <v>683.6550332454751</v>
       </c>
       <c r="W3" t="n">
-        <v>464.2658098296238</v>
+        <v>683.6550332454751</v>
       </c>
       <c r="X3" t="n">
-        <v>464.2658098296238</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="Y3" t="n">
-        <v>464.2658098296238</v>
+        <v>475.8035330399423</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>491.8677599769426</v>
+        <v>634.9529738206666</v>
       </c>
       <c r="C4" t="n">
-        <v>322.9315770490356</v>
+        <v>466.0167908927597</v>
       </c>
       <c r="D4" t="n">
-        <v>322.9315770490356</v>
+        <v>315.900151480424</v>
       </c>
       <c r="E4" t="n">
-        <v>175.0184834666425</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="F4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
@@ -4503,37 +4503,37 @@
         <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075539</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="V4" t="n">
-        <v>800.1710318001382</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="W4" t="n">
-        <v>533.7933752329601</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="X4" t="n">
-        <v>533.7933752329601</v>
+        <v>855.7455529641967</v>
       </c>
       <c r="Y4" t="n">
-        <v>533.7933752329601</v>
+        <v>634.9529738206666</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>522.1002068716689</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="C5" t="n">
-        <v>255.7225503044908</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="D5" t="n">
-        <v>255.7225503044908</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E5" t="n">
-        <v>255.7225503044908</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>248.7770495552874</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>235.8132367818429</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
         <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4603,16 +4603,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>788.477863438847</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>788.477863438847</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>522.1002068716689</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>522.1002068716689</v>
+        <v>840.1393936243022</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>471.7187438561812</v>
+        <v>503.7220043479542</v>
       </c>
       <c r="C6" t="n">
-        <v>471.7187438561812</v>
+        <v>329.2689750668272</v>
       </c>
       <c r="D6" t="n">
-        <v>471.7187438561812</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E6" t="n">
-        <v>312.4812888507257</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4679,19 +4679,19 @@
         <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>808.3837902496286</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>679.570244061714</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>679.570244061714</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>471.7187438561812</v>
+        <v>879.6976401329762</v>
       </c>
       <c r="Y6" t="n">
-        <v>471.7187438561812</v>
+        <v>671.9373413680223</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36.32155393434482</v>
+        <v>650.177417354891</v>
       </c>
       <c r="C7" t="n">
-        <v>36.32155393434482</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="D7" t="n">
-        <v>36.32155393434482</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434482</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4749,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407079</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>719.2759572512193</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>719.2759572512193</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>452.8983006840413</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>198.2138124781544</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>198.2138124781544</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>198.2138124781544</v>
+        <v>1052.618461328661</v>
       </c>
       <c r="Y7" t="n">
-        <v>36.32155393434482</v>
+        <v>831.8258821851307</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1503.26545946801</v>
+        <v>1586.879446109798</v>
       </c>
       <c r="C8" t="n">
-        <v>1134.302942527598</v>
+        <v>1217.916929169387</v>
       </c>
       <c r="D8" t="n">
-        <v>1134.302942527598</v>
+        <v>859.6512305626363</v>
       </c>
       <c r="E8" t="n">
-        <v>748.5146899293536</v>
+        <v>473.862977964392</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9174772151883</v>
+        <v>62.87707317478448</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685548</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685548</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685548</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467166</v>
+        <v>187.3702251467175</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607412</v>
+        <v>442.1757437607423</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045908</v>
+        <v>795.1862829045931</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995223</v>
+        <v>1219.647962995227</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209579</v>
+        <v>1655.591685209585</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940589</v>
+        <v>2053.905718940597</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550191</v>
+        <v>2359.356530550199</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661155</v>
+        <v>2540.564622661166</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342774</v>
+        <v>2560.562760342785</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342774</v>
+        <v>2560.562760342785</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342774</v>
+        <v>2560.562760342785</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342774</v>
+        <v>2560.562760342785</v>
       </c>
       <c r="V8" t="n">
-        <v>2229.499872999203</v>
+        <v>2329.787433355724</v>
       </c>
       <c r="W8" t="n">
-        <v>1876.731217729089</v>
+        <v>1977.01877808561</v>
       </c>
       <c r="X8" t="n">
-        <v>1503.26545946801</v>
+        <v>1977.01877808561</v>
       </c>
       <c r="Y8" t="n">
-        <v>1503.26545946801</v>
+        <v>1586.879446109798</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965631</v>
+        <v>931.3041138965633</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154361</v>
+        <v>756.8510846154363</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541848</v>
+        <v>607.9166749541851</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487294</v>
+        <v>448.6792199487295</v>
       </c>
       <c r="F9" t="n">
         <v>302.1446619756144</v>
@@ -4877,49 +4877,49 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993883</v>
+        <v>71.6655983999389</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685548</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507229</v>
+        <v>113.4887579637189</v>
       </c>
       <c r="K9" t="n">
-        <v>422.9158793018215</v>
+        <v>559.9063389572709</v>
       </c>
       <c r="L9" t="n">
-        <v>717.4518627353018</v>
+        <v>854.4423223907523</v>
       </c>
       <c r="M9" t="n">
-        <v>1080.518331209602</v>
+        <v>1217.508790865054</v>
       </c>
       <c r="N9" t="n">
-        <v>1467.60273368217</v>
+        <v>1604.593193337623</v>
       </c>
       <c r="O9" t="n">
-        <v>1990.333488500915</v>
+        <v>1936.480003325013</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.368846930539</v>
+        <v>2445.34536178904</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342774</v>
+        <v>2560.562760342785</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342774</v>
+        <v>2560.562760342785</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.82628025169</v>
+        <v>2424.826280251701</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685339</v>
+        <v>2230.81647768535</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751568</v>
+        <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519825</v>
+        <v>1769.36860661532</v>
       </c>
       <c r="W9" t="n">
         <v>1515.131249887118</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>791.0161496458225</v>
+        <v>461.2368923627284</v>
       </c>
       <c r="C10" t="n">
-        <v>622.0799667179156</v>
+        <v>292.3007094348216</v>
       </c>
       <c r="D10" t="n">
-        <v>471.9633273055798</v>
+        <v>142.1840700224858</v>
       </c>
       <c r="E10" t="n">
-        <v>471.9633273055798</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="F10" t="n">
-        <v>325.0733798076694</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="G10" t="n">
-        <v>157.0862549473601</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="H10" t="n">
-        <v>157.0862549473601</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685548</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380104</v>
+        <v>76.63468308380155</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676559</v>
+        <v>248.2500215676569</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368906</v>
+        <v>523.3850043368922</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904016</v>
+        <v>823.8653899904037</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.63564010161</v>
+        <v>1122.635640101613</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931088</v>
+        <v>1382.582027931091</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616496</v>
+        <v>1581.4903876165</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477359</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.156055412616</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="S10" t="n">
-        <v>1448.141681825479</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="T10" t="n">
-        <v>1448.141681825479</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="U10" t="n">
-        <v>1448.141681825479</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="V10" t="n">
-        <v>1193.457193619592</v>
+        <v>1381.084657271476</v>
       </c>
       <c r="W10" t="n">
-        <v>1193.457193619592</v>
+        <v>1091.667487234516</v>
       </c>
       <c r="X10" t="n">
-        <v>1193.457193619592</v>
+        <v>863.6779363364983</v>
       </c>
       <c r="Y10" t="n">
-        <v>972.6646144760622</v>
+        <v>642.8853571929682</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5056,37 +5056,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803939</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516146</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>579.1554649516146</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898186992</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373306</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356195</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750803</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.9192356072725</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,13 +5266,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5281,49 +5281,49 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797193</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191926</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191926</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845745</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356195</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2392.147342939586</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2392.147342939586</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2172.545877962526</v>
+        <v>2031.40580664033</v>
       </c>
       <c r="U16" t="n">
-        <v>1883.470651306724</v>
+        <v>1742.330579984527</v>
       </c>
       <c r="V16" t="n">
-        <v>1628.786163100837</v>
+        <v>1487.64609177864</v>
       </c>
       <c r="W16" t="n">
-        <v>1339.368993063877</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="X16" t="n">
-        <v>1111.379442165859</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y16" t="n">
-        <v>1111.379442165859</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,31 +5533,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>2231.588527385792</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>2231.588527385792</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>2726.914133601551</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>2854.440648734749</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>3482.038612289356</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>4033.948342528643</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>948.5505208511905</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235166</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258107</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602305</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396418</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.747069396418</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.7575184984</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.96493935487</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,64 +5740,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637308</v>
+        <v>352.5519571452619</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890283</v>
+        <v>949.9304447718135</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.11872044489</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684177</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>809.0422355233313</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>640.1060525954244</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851784</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855605</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1983.574488637966</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1728.890000432079</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1439.472830395119</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.483279497101</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>990.6907003535711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6016,25 +6016,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2715.159942084667</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>2877.307316025033</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>3474.685803651586</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>4102.283767206192</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>696.708435085168</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>615.644930552589</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>465.5282911402533</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578601</v>
@@ -6144,55 +6144,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855605</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199803</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993916</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956955</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058938</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.3568999154078</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6205,43 +6205,43 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168599</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>2233.355914590557</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>2233.355914590557</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>2233.355914590557</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>2233.355914590557</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>2817.800993781636</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>3445.398957336243</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>3997.30868757553</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4420.931837070598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>741.8431516380886</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>572.9069687101817</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>422.7903292978459</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>274.8772357154528</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>274.8772357154528</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611858</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>923.4916164683283</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611463</v>
@@ -6448,67 +6448,67 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="30">
@@ -6530,40 +6530,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6600,34 +6600,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6691,7 +6691,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6700,19 +6700,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6782,25 +6782,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1336.167399417937</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3195.262992109387</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>3026.32680918148</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>2876.210169769145</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>4623.787448650995</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>4404.185983673937</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>4115.110757018135</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>4115.110757018135</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>3825.693586981174</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>3597.704036083157</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>3376.911456939627</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6928,28 +6928,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7025,19 +7025,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3266.742304572424</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3897.172899444211</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3897.172899444211</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3669.183348546194</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3448.390769402664</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,16 +7171,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7256,25 +7256,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3260.450525729772</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>3091.514342801865</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>2941.39770338953</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>2793.484609807137</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4690.833152398593</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>4690.833152398593</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>4690.833152398593</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>4401.757925742791</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>4147.073437536905</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>3857.656267499944</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>3629.666716601927</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>3408.874137458397</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7490,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>806.8386896933887</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7605,16 +7605,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>988.4871545236284</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7645,40 +7645,40 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7690,7 +7690,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
@@ -7736,19 +7736,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>1057.955258982919</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>889.0190760550122</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>738.9024366426764</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>590.9893430602833</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>444.0993955623729</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>276.9032962772529</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>135.191465119451</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588917</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X46" t="n">
-        <v>1363.885660588917</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y46" t="n">
-        <v>1143.093081445387</v>
+        <v>1239.603723813159</v>
       </c>
     </row>
   </sheetData>
@@ -8066,16 +8066,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>45.78351343583174</v>
       </c>
       <c r="N3" t="n">
-        <v>51.53815565544059</v>
+        <v>51.53815565544045</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>45.78351343583233</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8151,13 +8151,13 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>163.0416663658821</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775174</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127268</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>192.7716614458152</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>264.4747475094979</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348535</v>
+        <v>20.98618304348506</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>125.1956044930008</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>12.10766347585259</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>53.405278868523</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>77.45170586329439</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,10 +23898,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>111.2104624337816</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>86.9939516113746</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>67.54000767002825</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>119.8635921600923</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>145.8014946027467</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>75.0369752643403</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>32.89260457059899</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>37.91759473995617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>135.8503182118951</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>40.30478226780126</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,19 +26076,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>672043.3098421077</v>
+        <v>672043.3098421076</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>677294.598799785</v>
+        <v>677294.5987997851</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>656086.3271572144</v>
+        <v>656086.3271572143</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>656086.3271572144</v>
+        <v>656086.3271572143</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>656086.3271572144</v>
+        <v>656086.3271572143</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>656086.3271572144</v>
+        <v>656086.3271572143</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>656086.3271572144</v>
+        <v>656086.3271572143</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>656086.3271572144</v>
+        <v>656086.3271572143</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>656086.3271572144</v>
+        <v>656086.3271572143</v>
       </c>
     </row>
     <row r="15">
@@ -26319,43 +26319,43 @@
         <v>779989.6813710693</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
         <v>766789.2697055057</v>
       </c>
       <c r="F2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="G2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="H2" t="n">
+        <v>766789.2697055064</v>
+      </c>
+      <c r="I2" t="n">
         <v>766789.269705506</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="K2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="M2" t="n">
         <v>766789.2697055058</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="K2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766789.2697055062</v>
-      </c>
-      <c r="M2" t="n">
-        <v>766789.2697055059</v>
       </c>
       <c r="N2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="O2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="P2" t="n">
         <v>766789.2697055058</v>
-      </c>
-      <c r="P2" t="n">
-        <v>766789.2697055062</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.980591193</v>
       </c>
       <c r="C3" t="n">
-        <v>1.03523461802979e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580765</v>
+        <v>390680.0076580794</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606959</v>
+        <v>507909.2320606929</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.989107599244782e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911377</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.493968250307481e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101705</v>
+        <v>95270.23779101789</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954697</v>
+        <v>132717.9756954689</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,34 +26423,34 @@
         <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>140465.2517501124</v>
+        <v>140465.2517501116</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179348</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179342</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179348</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179344</v>
+        <v>11167.03225179358</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179356</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179356</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.0322517936</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="N4" t="n">
         <v>11167.03225179351</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.8675756788</v>
+        <v>92902.867575679</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-214373.4680434096</v>
+        <v>-214373.4680434095</v>
       </c>
       <c r="C6" t="n">
-        <v>465714.5125477832</v>
+        <v>465714.5125477833</v>
       </c>
       <c r="D6" t="n">
-        <v>155941.5543872015</v>
+        <v>155941.554387199</v>
       </c>
       <c r="E6" t="n">
-        <v>146590.4755691091</v>
+        <v>146243.0963147553</v>
       </c>
       <c r="F6" t="n">
-        <v>654499.7076298054</v>
+        <v>654152.3283754484</v>
       </c>
       <c r="G6" t="n">
-        <v>654499.7076298054</v>
+        <v>654152.3283754486</v>
       </c>
       <c r="H6" t="n">
-        <v>654499.7076298052</v>
+        <v>654152.3283754489</v>
       </c>
       <c r="I6" t="n">
-        <v>654499.7076298054</v>
+        <v>654152.3283754482</v>
       </c>
       <c r="J6" t="n">
-        <v>585500.5532106913</v>
+        <v>585153.1739563342</v>
       </c>
       <c r="K6" t="n">
-        <v>654499.7076298054</v>
+        <v>654152.3283754482</v>
       </c>
       <c r="L6" t="n">
-        <v>559229.4698387885</v>
+        <v>558882.0905844306</v>
       </c>
       <c r="M6" t="n">
-        <v>521781.7319343355</v>
+        <v>521434.3526799792</v>
       </c>
       <c r="N6" t="n">
-        <v>654499.7076298053</v>
+        <v>654152.3283754484</v>
       </c>
       <c r="O6" t="n">
-        <v>654499.7076298052</v>
+        <v>654152.3283754481</v>
       </c>
       <c r="P6" t="n">
-        <v>654499.7076298054</v>
+        <v>654152.3283754482</v>
       </c>
     </row>
   </sheetData>
@@ -26706,19 +26706,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.469431638532585e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>7.308439567818174e-14</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.308439567818174e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26740,10 +26740,10 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627809</v>
+        <v>933.7024595627831</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856936</v>
+        <v>640.1406900856963</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26831,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26928,13 +26928,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.469431638532585e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>7.308439567818175e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.117460312884351e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.308439567818175e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933025</v>
+        <v>319.6474457933049</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788933</v>
+        <v>434.2730407788906</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841873</v>
+        <v>376.4268100841902</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139553</v>
+        <v>532.5675980139521</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.713880001506</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841873</v>
+        <v>376.4268100841906</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139553</v>
+        <v>532.5675980139521</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,13 +27165,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.469431638532585e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>7.308439567818175e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.117460312884351e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841873</v>
+        <v>376.4268100841902</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139553</v>
+        <v>532.5675980139521</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695013</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>243.4576053037171</v>
+        <v>275.1715493145786</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707557</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>143.1621657402054</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545473</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27463,7 +27463,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27472,7 +27472,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120976</v>
@@ -27505,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>46.96169264790657</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>109.3191177153139</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.32562107848</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
@@ -27596,16 +27596,16 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508475</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>28.5907880176278</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695013</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>101.6246675113628</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27675,16 +27675,16 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862865</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>173.6689735381485</v>
       </c>
     </row>
     <row r="6">
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27751,19 +27751,19 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>105.2751764233898</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>50.51920908443734</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117122</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>223.4949672984469</v>
       </c>
       <c r="Y7" t="n">
-        <v>58.31131739372333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>128.0948051546878</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203005</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465068</v>
+        <v>65.76608425465031</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348408</v>
+        <v>123.4854171348406</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
@@ -27912,16 +27912,16 @@
         <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>99.28468475294463</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27988,13 +27988,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.776449164528429</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>1.776449164539002</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>56.37087597909535</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590396</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640953</v>
       </c>
       <c r="S10" t="n">
-        <v>110.5096203991189</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
@@ -28073,10 +28073,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28806,7 +28806,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29049,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>9.707434855954489e-13</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.308439567818174e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>7.308439567818174e-14</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="D26" t="n">
-        <v>7.308439567818174e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>7.308439567818174e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>7.308439567818174e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>7.308439567818174e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>7.308439567818174e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>7.308439567818174e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>7.308439567818174e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>7.308439567818174e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>7.308439567818174e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>7.308439567818174e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>7.308439567818174e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>7.308439567818174e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29511,10 +29511,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1.55541510705775e-12</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29523,7 +29523,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29574,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29763,10 +29763,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30045,7 +30045,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885548</v>
+        <v>3.753577726885557</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546664</v>
+        <v>38.44132789546673</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157552</v>
+        <v>144.7098053157556</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972526</v>
+        <v>318.5802175972534</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763179</v>
+        <v>477.4691627763191</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354916</v>
+        <v>592.3427171354931</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359925</v>
+        <v>659.0954050359941</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525062</v>
+        <v>669.7602577525078</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307879</v>
+        <v>632.4356192307895</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983008</v>
+        <v>539.7691690983022</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.344166754212</v>
+        <v>405.344166754213</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864745</v>
+        <v>235.7856768864751</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140453</v>
+        <v>85.53465245140472</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4312864994415</v>
+        <v>16.43128649944154</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508438</v>
+        <v>0.3002862181508446</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436925</v>
+        <v>2.00834113943693</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035136</v>
+        <v>19.3963473203514</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026256</v>
+        <v>69.14683309026272</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079421</v>
+        <v>189.7441951079426</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502161</v>
+        <v>324.3030514502169</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571271</v>
+        <v>436.0654741571282</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617155</v>
+        <v>508.8678404617168</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152203</v>
+        <v>522.3360580152215</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519073</v>
+        <v>477.8354464519085</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947581</v>
+        <v>383.505072494759</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463696</v>
+        <v>256.3629847463702</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204786</v>
+        <v>124.6933209204789</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366391</v>
+        <v>37.304055813664</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133919</v>
+        <v>8.095024154133938</v>
       </c>
       <c r="U9" t="n">
-        <v>0.132127706541903</v>
+        <v>0.1321277065419033</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752555</v>
+        <v>1.683725746752559</v>
       </c>
       <c r="H10" t="n">
-        <v>14.9698525484</v>
+        <v>14.96985254840004</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415869</v>
+        <v>50.63422518415881</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954057</v>
+        <v>119.039410295406</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772514</v>
+        <v>195.6183185772519</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490118</v>
+        <v>250.3240987490124</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023119</v>
+        <v>263.9316641023125</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462344</v>
+        <v>257.6559590462351</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046249</v>
+        <v>237.9869810046255</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708726</v>
+        <v>203.6389757708731</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939799</v>
+        <v>140.9890713939803</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307398</v>
+        <v>75.70643221307417</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658771</v>
+        <v>29.34274778658778</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942735</v>
+        <v>7.194100917942753</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650313</v>
+        <v>0.09183958618650336</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>479.6444630806896</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>453.7122424932245</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M18" t="n">
-        <v>270.9486956727236</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>248.74493692092</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704897</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817556</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>302.3396059822645</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,16 +32812,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,34 +33022,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33262,7 +33262,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33271,22 +33271,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>454.1257695262137</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33502,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33511,19 +33511,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>671.2522281007818</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33657,7 +33657,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33745,22 +33745,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>302.967544750805</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33976,28 +33976,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34210,7 +34210,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>270.4557004614713</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34456,22 +34456,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>604.245822599193</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34786,16 +34786,16 @@
         <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>238.309462018179</v>
       </c>
       <c r="N3" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="O3" t="n">
         <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>164.0235134695733</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
         <v>28.61687799649638</v>
@@ -34871,13 +34871,13 @@
         <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>181.0986910958074</v>
       </c>
       <c r="P4" t="n">
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827497113</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877691</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705663</v>
+        <v>137.5343130705671</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313374</v>
+        <v>257.3793117313386</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655044</v>
+        <v>356.5763021655059</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087198</v>
+        <v>428.7491718087214</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559152</v>
+        <v>440.3471941559168</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091011</v>
+        <v>402.3374078091027</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430313</v>
+        <v>308.5361733430327</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797626</v>
+        <v>183.0384768797635</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234241</v>
+        <v>20.20013907234298</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816843</v>
+        <v>62.90656844127591</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758571</v>
+        <v>450.9268494884365</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772529</v>
+        <v>297.511094377254</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396972</v>
+        <v>366.7338065396984</v>
       </c>
       <c r="N9" t="n">
-        <v>390.994345931887</v>
+        <v>390.9943459318882</v>
       </c>
       <c r="O9" t="n">
-        <v>528.010863453278</v>
+        <v>335.239202007464</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804279</v>
+        <v>514.0054125899267</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961972</v>
+        <v>116.3812106603487</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873288</v>
+        <v>25.68023017873318</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513686</v>
+        <v>173.348826751369</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093279</v>
+        <v>277.9141240093285</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641525</v>
+        <v>303.5155410641531</v>
       </c>
       <c r="N10" t="n">
-        <v>301.788131425463</v>
+        <v>301.7881314254637</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186646</v>
+        <v>262.5721089186652</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357661</v>
+        <v>200.9175350357666</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228553</v>
+        <v>54.82702814228587</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>337.5104291586713</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>322.3705304098912</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M18" t="n">
-        <v>128.8146617507053</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>110.1905571410458</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561594</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036775</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>163.7852262023903</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36919,22 +36919,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>311.9917356041954</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37159,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>528.6559836563374</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37393,22 +37393,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>160.8335108287866</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37624,28 +37624,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>136.4812930471411</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>472.9041105158597</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3646611.066333804</v>
+        <v>3648371.596636588</v>
       </c>
     </row>
     <row r="7">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>79.51149230610433</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>263.7138800015061</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>92.07720442932798</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>116.5353697882407</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>72.4661352302452</v>
       </c>
     </row>
     <row r="4">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,10 +828,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>112.5637215379138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>197.1188673714094</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>72.63544656439291</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>212.5689651179051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>36.8785042301223</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>155.2537761190401</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
-        <v>2.214688090590209</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>17.2539081138802</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.9442001256833</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1150,10 +1150,10 @@
         <v>11.54915978824949</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465031</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348406</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>228.4675737171903</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>224.0328052099045</v>
+        <v>224.0328052099038</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>90.06308666747383</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>170.5614640466863</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,13 +1776,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>164.0001714587653</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>58.21786903648848</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,16 +2244,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>7.069540131684027</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2481,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>84.8780074336923</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,13 +2532,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2608,10 +2608,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>160.2261899043209</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.272891771006</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2845,10 +2845,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>77.39507264402552</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>102.3802743186419</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="36">
@@ -3429,16 +3429,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>65.78783178799269</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444113</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3568,10 +3568,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="39">
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>84.87800743369236</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>106.365256562042</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4033,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>34.44192933414556</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>40.96105405076428</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,16 +4194,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>900.5447187946887</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="C2" t="n">
-        <v>900.5447187946887</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="D2" t="n">
-        <v>820.230080101654</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="E2" t="n">
-        <v>553.8524235344762</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4747669672984</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>114.1043876014619</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>114.1043876014619</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917582</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
         <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
         <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601762</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946887</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946887</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U2" t="n">
-        <v>900.5447187946887</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="V2" t="n">
-        <v>900.5447187946887</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="W2" t="n">
-        <v>900.5447187946887</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="X2" t="n">
-        <v>900.5447187946887</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="Y2" t="n">
-        <v>900.5447187946887</v>
+        <v>646.8597007358178</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>475.8035330399423</v>
+        <v>795.1061827985595</v>
       </c>
       <c r="C3" t="n">
-        <v>475.8035330399423</v>
+        <v>620.6531535174325</v>
       </c>
       <c r="D3" t="n">
-        <v>326.869123378691</v>
+        <v>471.7187438561813</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6316683732355</v>
+        <v>312.4812888507258</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
@@ -4418,43 +4418,43 @@
         <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>478.4519222278685</v>
+        <v>478.4519222278687</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293595</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560893</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212814</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212814</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212814</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>918.8071414772178</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>683.6550332454751</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W3" t="n">
-        <v>683.6550332454751</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X3" t="n">
-        <v>475.8035330399423</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="Y3" t="n">
-        <v>475.8035330399423</v>
+        <v>963.3215198186276</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>634.9529738206666</v>
+        <v>487.696204039846</v>
       </c>
       <c r="C4" t="n">
-        <v>466.0167908927597</v>
+        <v>487.696204039846</v>
       </c>
       <c r="D4" t="n">
-        <v>315.900151480424</v>
+        <v>337.5795646275102</v>
       </c>
       <c r="E4" t="n">
-        <v>167.9870578980309</v>
+        <v>189.666471045117</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G4" t="n">
         <v>21.09711040012049</v>
@@ -4503,37 +4503,37 @@
         <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075539</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816802</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006024</v>
+        <v>829.3864837640389</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006024</v>
+        <v>715.6857549378633</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.855520006024</v>
+        <v>715.6857549378633</v>
       </c>
       <c r="W4" t="n">
-        <v>1054.855520006024</v>
+        <v>715.6857549378633</v>
       </c>
       <c r="X4" t="n">
-        <v>855.7455529641967</v>
+        <v>487.696204039846</v>
       </c>
       <c r="Y4" t="n">
-        <v>634.9529738206666</v>
+        <v>487.696204039846</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>840.1393936243022</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="C5" t="n">
-        <v>573.7617370571243</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="D5" t="n">
-        <v>307.3840804899464</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G5" t="n">
         <v>21.09711040012049</v>
@@ -4573,10 +4573,10 @@
         <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
         <v>704.5463761991316</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>827.1755808508577</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>560.7979242836798</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="Y5" t="n">
-        <v>840.1393936243022</v>
+        <v>294.4202677165019</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>503.7220043479542</v>
+        <v>207.2825344352327</v>
       </c>
       <c r="C6" t="n">
-        <v>329.2689750668272</v>
+        <v>207.2825344352327</v>
       </c>
       <c r="D6" t="n">
-        <v>180.334565405576</v>
+        <v>58.3481247739814</v>
       </c>
       <c r="E6" t="n">
-        <v>21.09711040012049</v>
+        <v>58.3481247739814</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>58.3481247739814</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>58.3481247739814</v>
       </c>
       <c r="H6" t="n">
         <v>21.09711040012049</v>
@@ -4646,7 +4646,7 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K6" t="n">
         <v>192.1295835699343</v>
@@ -4670,28 +4670,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>858.0464416374622</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>858.0464416374622</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>622.8943334057194</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.519636212815</v>
+        <v>622.8943334057194</v>
       </c>
       <c r="X6" t="n">
-        <v>879.6976401329762</v>
+        <v>415.0428332001866</v>
       </c>
       <c r="Y6" t="n">
-        <v>671.9373413680223</v>
+        <v>207.2825344352327</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>650.177417354891</v>
+        <v>589.4012085945865</v>
       </c>
       <c r="C7" t="n">
-        <v>481.2412344269841</v>
+        <v>589.4012085945865</v>
       </c>
       <c r="D7" t="n">
-        <v>331.1245950146483</v>
+        <v>439.2845691822508</v>
       </c>
       <c r="E7" t="n">
-        <v>183.2115014322552</v>
+        <v>291.3714755998577</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434483</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4764,13 +4764,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>1054.855520006025</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X7" t="n">
-        <v>1052.618461328661</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y7" t="n">
-        <v>831.8258821851307</v>
+        <v>771.0496734248262</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.879446109798</v>
+        <v>1714.627796442755</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.916929169387</v>
+        <v>1588.421533689539</v>
       </c>
       <c r="D8" t="n">
-        <v>859.6512305626363</v>
+        <v>1230.155835082789</v>
       </c>
       <c r="E8" t="n">
-        <v>473.862977964392</v>
+        <v>844.3675824845443</v>
       </c>
       <c r="F8" t="n">
-        <v>62.87707317478448</v>
+        <v>433.3816776949368</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2112552068557</v>
+        <v>421.715859727008</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2112552068557</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2112552068557</v>
+        <v>51.21125520685569</v>
       </c>
       <c r="J8" t="n">
         <v>187.3702251467175</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607423</v>
+        <v>442.1757437607425</v>
       </c>
       <c r="L8" t="n">
         <v>795.1862829045931</v>
@@ -4825,31 +4825,31 @@
         <v>2359.356530550199</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661166</v>
+        <v>2540.564622661165</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342785</v>
+        <v>2560.562760342784</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342785</v>
+        <v>2435.830015762137</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342785</v>
+        <v>2435.830015762137</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342785</v>
+        <v>2435.830015762137</v>
       </c>
       <c r="V8" t="n">
-        <v>2329.787433355724</v>
+        <v>2104.767128418566</v>
       </c>
       <c r="W8" t="n">
-        <v>1977.01877808561</v>
+        <v>2104.767128418566</v>
       </c>
       <c r="X8" t="n">
-        <v>1977.01877808561</v>
+        <v>2104.767128418566</v>
       </c>
       <c r="Y8" t="n">
-        <v>1586.879446109798</v>
+        <v>1714.627796442755</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965633</v>
+        <v>931.3041138965631</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154363</v>
+        <v>756.8510846154361</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541851</v>
+        <v>607.9166749541848</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487295</v>
+        <v>448.6792199487294</v>
       </c>
       <c r="F9" t="n">
         <v>302.1446619756144</v>
@@ -4877,49 +4877,49 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.6655983999389</v>
+        <v>71.66559839993889</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2112552068557</v>
+        <v>51.21125520685569</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637189</v>
+        <v>238.3188829507236</v>
       </c>
       <c r="K9" t="n">
-        <v>559.9063389572709</v>
+        <v>519.8838657942232</v>
       </c>
       <c r="L9" t="n">
-        <v>854.4423223907523</v>
+        <v>814.4198492277046</v>
       </c>
       <c r="M9" t="n">
-        <v>1217.508790865054</v>
+        <v>1177.486317702006</v>
       </c>
       <c r="N9" t="n">
-        <v>1604.593193337623</v>
+        <v>1564.570720174575</v>
       </c>
       <c r="O9" t="n">
-        <v>1936.480003325013</v>
+        <v>2198.310003359415</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.34536178904</v>
+        <v>2445.345361789039</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342785</v>
+        <v>2560.562760342784</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342785</v>
+        <v>2560.562760342784</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251701</v>
+        <v>2424.8262802517</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.81647768535</v>
+        <v>2230.816477685349</v>
       </c>
       <c r="U9" t="n">
         <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.36860661532</v>
+        <v>1769.368606615319</v>
       </c>
       <c r="W9" t="n">
         <v>1515.131249887118</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.2368923627284</v>
+        <v>833.0542434877111</v>
       </c>
       <c r="C10" t="n">
-        <v>292.3007094348216</v>
+        <v>664.1180605598042</v>
       </c>
       <c r="D10" t="n">
-        <v>142.1840700224858</v>
+        <v>514.0014211474685</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2112552068557</v>
+        <v>366.0883275650754</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2112552068557</v>
+        <v>219.198380067165</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2112552068557</v>
+        <v>51.21125520685569</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2112552068557</v>
+        <v>51.21125520685569</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2112552068557</v>
+        <v>51.21125520685569</v>
       </c>
       <c r="J10" t="n">
         <v>76.63468308380155</v>
@@ -4998,16 +4998,16 @@
         <v>1635.769145477363</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.084657271476</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="W10" t="n">
-        <v>1091.667487234516</v>
+        <v>1463.484838359498</v>
       </c>
       <c r="X10" t="n">
-        <v>863.6779363364983</v>
+        <v>1235.495287461481</v>
       </c>
       <c r="Y10" t="n">
-        <v>642.8853571929682</v>
+        <v>1014.702708317951</v>
       </c>
     </row>
     <row r="11">
@@ -5047,13 +5047,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5117,25 +5117,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>196.5408620426154</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5241,10 +5241,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5281,16 +5281,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2031.40580664033</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1742.330579984527</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1487.64609177864</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1198.22892174168</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2321.111451512978</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>2101.509986535919</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1812.434759880117</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1557.75027167423</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1268.333101637269</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1040.343550739252</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>819.5509715957215</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5746,31 +5746,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5779,25 +5779,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452619</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718135</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1970.320130882545</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1715.635642676658</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5983,28 +5983,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6016,25 +6016,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>870.3164745246296</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>701.3802915967227</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>551.263652184387</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>403.3505586019938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6220,28 +6220,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>945.402603663004</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>776.4664207350971</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>626.3497813227614</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>626.3497813227614</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>479.459833824851</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611463</v>
@@ -6448,67 +6448,67 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6530,40 +6530,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1899.284239455937</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6700,19 +6700,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6736,10 +6736,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591809</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="35">
@@ -6928,58 +6928,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>870.3164745246296</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>701.3802915967227</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>551.263652184387</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.54781100471</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168586</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436266</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,37 +7189,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="39">
@@ -7241,31 +7241,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>870.3164745246296</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>701.3802915967227</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>551.263652184387</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>403.3505586019938</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="41">
@@ -7405,25 +7405,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7438,13 +7438,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123002</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>719.8578917311354</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>571.9447981487423</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>425.0548506508319</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7645,40 +7645,40 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7687,7 +7687,7 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
         <v>3094.515198591809</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1057.955258982919</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="C46" t="n">
-        <v>889.0190760550122</v>
+        <v>814.4041655335318</v>
       </c>
       <c r="D46" t="n">
-        <v>738.9024366426764</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>590.9893430602833</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>444.0993955623729</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>276.9032962772529</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>135.191465119451</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854706</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1688.385853854706</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1460.396302956689</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>1239.603723813159</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>45.78351343583174</v>
+        <v>45.78351343583191</v>
       </c>
       <c r="N3" t="n">
         <v>51.53815565544045</v>
@@ -8151,10 +8151,10 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658821</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>135.006563314041</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>97.94746110343465</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>304.901488078232</v>
       </c>
       <c r="P9" t="n">
-        <v>264.4747475094979</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>-1.45674148558813e-12</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>38.5977558415268</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>24.63391537253449</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>53.405278868523</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>122.8084169651561</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.1149342575601</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>60.54304058923894</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>5.297948387947969</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24846,16 +24846,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>208.7894017452186</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>77.4517058632954</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>80.64613085857648</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>60.54304058923888</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>59.15888173022681</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>114.1735436840668</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>40.30478226780126</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>656086.3271572143</v>
+        <v>656086.3271572144</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>656086.3271572143</v>
+        <v>656086.3271572144</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>656086.3271572143</v>
+        <v>656086.3271572144</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>656086.3271572143</v>
+        <v>656086.3271572144</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710696</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.681371069</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710687</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="F2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="G2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="H2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="J2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="L2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="M2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="N2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="O2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="P2" t="n">
         <v>766789.2697055057</v>
-      </c>
-      <c r="F2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="G2" t="n">
-        <v>766789.2697055062</v>
-      </c>
-      <c r="H2" t="n">
-        <v>766789.2697055064</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="K2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="M2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="P2" t="n">
-        <v>766789.2697055058</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.980591193</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.989107599244782e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>2.493968250307481e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101789</v>
+        <v>95270.23779101777</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954689</v>
+        <v>132717.975695469</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26435,25 +26435,25 @@
         <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
+        <v>11167.03225179351</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11167.03225179351</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11167.03225179351</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11167.03225179357</v>
+      </c>
+      <c r="L4" t="n">
+        <v>11167.03225179351</v>
+      </c>
+      <c r="M4" t="n">
         <v>11167.03225179358</v>
       </c>
-      <c r="I4" t="n">
-        <v>11167.03225179356</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11167.03225179356</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11167.0322517936</v>
-      </c>
-      <c r="L4" t="n">
-        <v>11167.03225179352</v>
-      </c>
-      <c r="M4" t="n">
-        <v>11167.03225179353</v>
-      </c>
       <c r="N4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179358</v>
       </c>
       <c r="O4" t="n">
         <v>11167.03225179351</v>
@@ -26475,7 +26475,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.867575679</v>
+        <v>92902.86757567899</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-214373.4680434095</v>
+        <v>-214373.4680434094</v>
       </c>
       <c r="C6" t="n">
-        <v>465714.5125477833</v>
+        <v>465714.512547783</v>
       </c>
       <c r="D6" t="n">
-        <v>155941.554387199</v>
+        <v>155941.5543871987</v>
       </c>
       <c r="E6" t="n">
-        <v>146243.0963147553</v>
+        <v>146555.7376436763</v>
       </c>
       <c r="F6" t="n">
-        <v>654152.3283754484</v>
+        <v>654464.9697043695</v>
       </c>
       <c r="G6" t="n">
-        <v>654152.3283754486</v>
+        <v>654464.9697043698</v>
       </c>
       <c r="H6" t="n">
-        <v>654152.3283754489</v>
+        <v>654464.9697043697</v>
       </c>
       <c r="I6" t="n">
-        <v>654152.3283754482</v>
+        <v>654464.9697043697</v>
       </c>
       <c r="J6" t="n">
-        <v>585153.1739563342</v>
+        <v>585465.8152852557</v>
       </c>
       <c r="K6" t="n">
-        <v>654152.3283754482</v>
+        <v>654464.9697043698</v>
       </c>
       <c r="L6" t="n">
-        <v>558882.0905844306</v>
+        <v>559194.7319133519</v>
       </c>
       <c r="M6" t="n">
-        <v>521434.3526799792</v>
+        <v>521746.9940089007</v>
       </c>
       <c r="N6" t="n">
-        <v>654152.3283754484</v>
+        <v>654464.9697043695</v>
       </c>
       <c r="O6" t="n">
-        <v>654152.3283754481</v>
+        <v>654464.9697043698</v>
       </c>
       <c r="P6" t="n">
-        <v>654152.3283754482</v>
+        <v>654464.9697043694</v>
       </c>
     </row>
   </sheetData>
@@ -26706,22 +26706,22 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.469431638532585e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>4.875793255733101e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>9.754633882251036e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26795,7 +26795,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856963</v>
+        <v>640.1406900856961</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26831,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26928,19 +26928,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.469431638532585e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.117460312884351e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.875793255733101e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841902</v>
+        <v>376.4268100841899</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139521</v>
+        <v>532.5675980139523</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,7 +27041,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841906</v>
+        <v>376.4268100841902</v>
       </c>
       <c r="M4" t="n">
         <v>532.5675980139521</v>
@@ -27165,13 +27165,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.469431638532585e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.117460312884351e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841902</v>
+        <v>376.4268100841899</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139521</v>
+        <v>532.5675980139523</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,13 +27384,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>275.1715493145786</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707557</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402054</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G2" t="n">
         <v>149.1202946442039</v>
@@ -27399,7 +27399,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>23.22941511756913</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27475,10 +27475,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27514,19 +27514,19 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>109.3191177153139</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>133.2165605470591</v>
       </c>
     </row>
     <row r="4">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,10 +27548,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27590,10 +27590,10 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>173.6949089647637</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>28.5907880176278</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,19 +27618,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>178.5127213138896</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>173.6689735381485</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27712,7 +27712,7 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>62.60081604108746</v>
       </c>
       <c r="I6" t="n">
         <v>43.9218040015056</v>
@@ -27742,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>50.51920908443734</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
-        <v>223.4949672984469</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>201.3307452382146</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>240.3286916453242</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465031</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348406</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
@@ -27912,10 +27912,10 @@
         <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>99.28468475294463</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27988,7 +27988,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.776449164528429</v>
+        <v>1.776449164529112</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>56.37087597909535</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.2573199590395</v>
@@ -28070,10 +28070,10 @@
         <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>115.9615342899047</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28806,7 +28806,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29049,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>9.707434855954489e-13</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29277,7 +29277,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29511,10 +29511,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.55541510705775e-12</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29523,7 +29523,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29565,16 +29565,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29763,10 +29763,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30045,7 +30045,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30054,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="36">
@@ -30237,10 +30237,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>9.754633882251036e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2.436697740134166e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30288,10 +30288,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>9.754633882251036e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>9.754633882251036e-14</v>
       </c>
     </row>
     <row r="39">
@@ -31837,13 +31837,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31855,10 +31855,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32074,16 +32074,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L15" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32095,7 +32095,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32311,16 +32311,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,28 +32548,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>248.74493692092</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,7 +33049,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,10 +33271,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>407.2177391203972</v>
       </c>
       <c r="N30" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33286,7 +33286,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,10 +33654,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34786,7 +34786,7 @@
         <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>238.309462018179</v>
+        <v>238.3094620181792</v>
       </c>
       <c r="N3" t="n">
         <v>263.7138800015061</v>
@@ -34871,10 +34871,10 @@
         <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958074</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>131.2029511204529</v>
       </c>
       <c r="Q4" t="n">
         <v>6.560263827496826</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089029</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659562</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127591</v>
+        <v>188.9976037816847</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884365</v>
+        <v>284.4090735792925</v>
       </c>
       <c r="L9" t="n">
         <v>297.511094377254</v>
@@ -35266,10 +35266,10 @@
         <v>390.9943459318882</v>
       </c>
       <c r="O9" t="n">
-        <v>335.239202007464</v>
+        <v>640.1406900856961</v>
       </c>
       <c r="P9" t="n">
-        <v>514.0054125899267</v>
+        <v>249.5306650804288</v>
       </c>
       <c r="Q9" t="n">
         <v>116.3812106603487</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35503,10 +35503,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L15" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35743,7 +35743,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>110.1905571410458</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,10 +36919,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>265.0837051983789</v>
       </c>
       <c r="N30" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,10 +37302,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492471</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
